--- a/biology/Botanique/Chanvre_sauvage/Chanvre_sauvage.xlsx
+++ b/biology/Botanique/Chanvre_sauvage/Chanvre_sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cannabis sativa var. ruderalis, Cannabis sativa subsp. ruderalis, Cannabis sativa subsp. spontanea
 Le Chanvre sauvage (Cannabis sativa var. ruderalis) est une variété de plantes à fleurs de l'espèce Cannabis sativa, dans la famille des Cannabacées. Sa classification est encore discutée, et on la considère parfois comme étant plutôt une sous-espèce. Cette plante annuelle, spontanée à l'est de l'Eurasie, est récoltée principalement pour ses fibres soyeuse et robuste, donnant de faibles effets psychotropes.
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la lumière des analyses génétiques du XXIe siècle, il faudrait plutôt considérer qu'il ne s'agit pas d'une simple variété botanique du Chanvre cultivé, Cannabis sativa var. ruderalis[1], mais plutôt une sous-espèce : Cannabis sativa subsp. ruderalis[2],[3], anciennement Cannabis sativa subsp. spontanea, quand d'autres auteurs n'en faisaient pas une espèce à part entière, Cannabis ruderalis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À la lumière des analyses génétiques du XXIe siècle, il faudrait plutôt considérer qu'il ne s'agit pas d'une simple variété botanique du Chanvre cultivé, Cannabis sativa var. ruderalis, mais plutôt une sous-espèce : Cannabis sativa subsp. ruderalis anciennement Cannabis sativa subsp. spontanea, quand d'autres auteurs n'en faisaient pas une espèce à part entière, Cannabis ruderalis.
 Synonymes :
-Cannabis ruderalis Janisch., 1924[4].
+Cannabis ruderalis Janisch., 1924.
 Cannabis sativa var. spontanea Vavilov, 1922</t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-espèce pousse à l'état sauvage dans des régions de l'Europe de l'Est et de la Russie. Elle est caractérisée par sa floraison précoce, certains de ses représentants fleurissent même indépendamment de la photopériode. Elle supporte des climats plus froids et des conditions environnementales difficiles.
 Le chanvre sauvage pousse à l'état sauvage en Europe centrale et en Europe de l'Est où il est considéré comme une mauvaise herbe. On le rencontre fréquemment en bordure des routes, des champs et des rivières.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivé pour ses fibres, il entre aussi dans la création d'hybrides à autofloraison pour le chanvre récréatif et médicinal. Il ne possède en lui-même que de très faibles effets psychotropes. La teneur en THC n'excède pas les 0,5 %.
 </t>
@@ -609,7 +627,9 @@
           <t>Avantages de cannabis ruderalis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Capacité d’autofloraison
 Génétiques robustes (peut pousser presque partout)
@@ -645,11 +665,13 @@
           <t>Inconvénients de cannabis ruderalis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les plants ruderalis purs contiennent très peu de THC (a besoin d’indica ou sativa pour lui donner de la puissance)
 Des plants plus petits entrainent des rendements plus faibles
-Un cycle de vie court empêche le cultivateur de transplanter ou de faire du palissage à stress élevé HST[5]</t>
+Un cycle de vie court empêche le cultivateur de transplanter ou de faire du palissage à stress élevé HST</t>
         </is>
       </c>
     </row>
